--- a/Mifos Automation Excels/Client/2497-RBI-EPP-DB-SAR-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-DELETE-VAR-INST-PERIODIC-Makerepayment2.xlsx
+++ b/Mifos Automation Excels/Client/2497-RBI-EPP-DB-SAR-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-DELETE-VAR-INST-PERIODIC-Makerepayment2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" tabRatio="696" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" tabRatio="696" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="5" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="43">
   <si>
     <t>Interest</t>
   </si>
@@ -115,43 +115,40 @@
     <t>$ 5,000</t>
   </si>
   <si>
-    <t>$ 73.97</t>
-  </si>
-  <si>
-    <t>$ 907.3</t>
-  </si>
-  <si>
-    <t>$ 833.33</t>
-  </si>
-  <si>
-    <t>$ 852.51</t>
-  </si>
-  <si>
-    <t>$ 19.18</t>
-  </si>
-  <si>
     <t>Interest Receivable(3)</t>
   </si>
   <si>
-    <t>L33</t>
-  </si>
-  <si>
     <t>system</t>
   </si>
   <si>
-    <t>$ 50</t>
-  </si>
-  <si>
-    <t>L34</t>
-  </si>
-  <si>
-    <t>$ 40.5</t>
-  </si>
-  <si>
-    <t>L37</t>
-  </si>
-  <si>
-    <t>$ 82.27</t>
+    <t>Accrual</t>
+  </si>
+  <si>
+    <t>L106</t>
+  </si>
+  <si>
+    <t>L112</t>
+  </si>
+  <si>
+    <t>L110</t>
+  </si>
+  <si>
+    <t>L111</t>
+  </si>
+  <si>
+    <t>$ 100</t>
+  </si>
+  <si>
+    <t>$ 90.91</t>
+  </si>
+  <si>
+    <t>$ 909.09</t>
+  </si>
+  <si>
+    <t>$ 1,000</t>
+  </si>
+  <si>
+    <t>$ 1,009.09</t>
   </si>
 </sst>
 </file>
@@ -258,24 +255,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -612,10 +607,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" activeCellId="1" sqref="E3 E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -667,7 +662,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>45</v>
+        <v>112</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>6</v>
@@ -678,14 +673,14 @@
       <c r="D2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="7">
-        <v>1001.74</v>
+      <c r="E2" s="6">
+        <v>1000</v>
       </c>
       <c r="F2" s="4">
         <v>909.09</v>
       </c>
       <c r="G2" s="4">
-        <v>92.65</v>
+        <v>90.91</v>
       </c>
       <c r="H2" s="4">
         <v>0</v>
@@ -701,25 +696,25 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
-        <v>42</v>
+        <v>111</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="5">
-        <v>42064</v>
+        <v>42095</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="6">
-        <v>5000</v>
+        <v>33</v>
+      </c>
+      <c r="E3" s="4">
+        <v>90.91</v>
       </c>
       <c r="F3" s="4">
         <v>0</v>
       </c>
       <c r="G3" s="4">
-        <v>0</v>
+        <v>90.91</v>
       </c>
       <c r="H3" s="4">
         <v>0</v>
@@ -727,15 +722,15 @@
       <c r="I3" s="4">
         <v>0</v>
       </c>
-      <c r="J3" s="7">
-        <v>9090.91</v>
+      <c r="J3" s="4">
+        <v>0</v>
       </c>
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>6</v>
@@ -744,16 +739,16 @@
         <v>42064</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="7">
-        <v>1006.08</v>
+        <v>33</v>
+      </c>
+      <c r="E4" s="4">
+        <v>100</v>
       </c>
       <c r="F4" s="4">
-        <v>909.09</v>
+        <v>0</v>
       </c>
       <c r="G4" s="4">
-        <v>96.99</v>
+        <v>100</v>
       </c>
       <c r="H4" s="4">
         <v>0</v>
@@ -761,21 +756,21 @@
       <c r="I4" s="4">
         <v>0</v>
       </c>
-      <c r="J4" s="7">
-        <v>4090.91</v>
+      <c r="J4" s="4">
+        <v>0</v>
       </c>
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <v>38</v>
+        <v>107</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="5">
-        <v>42005</v>
+        <v>42064</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>3</v>
@@ -795,11 +790,79 @@
       <c r="I5" s="4">
         <v>0</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="7">
+        <v>9090.91</v>
+      </c>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>106</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="5">
+        <v>42064</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="7">
+        <v>1009.09</v>
+      </c>
+      <c r="F6" s="4">
+        <v>909.09</v>
+      </c>
+      <c r="G6" s="4">
+        <v>100</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7">
+        <v>4090.91</v>
+      </c>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>105</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="5">
+        <v>42005</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="6">
         <v>5000</v>
       </c>
-      <c r="K5"/>
-      <c r="L5"/>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0</v>
+      </c>
+      <c r="J7" s="6">
+        <v>5000</v>
+      </c>
+      <c r="K7"/>
+      <c r="L7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -811,7 +874,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -863,7 +926,7 @@
       <c r="B2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="13">
         <v>42005</v>
       </c>
       <c r="D2" s="12" t="s">
@@ -890,7 +953,7 @@
       <c r="B3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="13">
         <v>42005</v>
       </c>
       <c r="D3" s="12" t="s">
@@ -917,155 +980,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="12">
-        <v>151</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="5">
-        <v>42050</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="15"/>
-      <c r="I2" s="16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
-        <v>152</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="5">
-        <v>42050</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" s="15"/>
-      <c r="I3" s="16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
-        <v>154</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="5">
-        <v>42050</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" s="15"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E6" s="4"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1111,6 +1029,142 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="15">
+        <v>203</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="16">
+        <v>42064</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="15">
+        <v>204</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="16">
+        <v>42064</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="15">
+        <v>205</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="16">
+        <v>42064</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="20"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>151</v>
       </c>
@@ -1171,10 +1225,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1191,7 +1245,7 @@
     <col min="10" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>7</v>
       </c>
@@ -1220,96 +1274,86 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="12">
-        <v>151</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="13">
-        <v>42064</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="12" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="15">
+        <v>216</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="16">
+        <v>42095</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="15">
+        <v>217</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="16">
+        <v>42095</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="17"/>
-      <c r="I2" s="18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
-        <v>152</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="13">
-        <v>42064</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="12" t="s">
+      <c r="H3" s="18"/>
+      <c r="I3" s="18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="15">
+        <v>218</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="16">
+        <v>42095</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" s="17"/>
-      <c r="I3" s="18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
-        <v>154</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="13">
-        <v>42064</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="15" t="s">
         <v>16</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4" s="17"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E7" s="4"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
+        <v>41</v>
+      </c>
+      <c r="I4" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1318,228 +1362,170 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="14" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="18">
-        <v>40</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="13">
-        <v>42036</v>
-      </c>
-      <c r="D2" s="18" t="s">
+      <c r="A2" s="15">
+        <v>212</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="16">
+        <v>42064</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="17"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="15">
+        <v>213</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="16">
+        <v>42064</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="15">
+        <v>214</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="16">
+        <v>42095</v>
+      </c>
+      <c r="D5" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E5" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="F5" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="18">
-        <v>41</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="13">
-        <v>42036</v>
-      </c>
-      <c r="D3" s="18" t="s">
+      <c r="I5" s="17"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="15">
+        <v>215</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="16">
+        <v>42095</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E6" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="18" t="s">
+      <c r="F6" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2" t="s">
+      <c r="H6" s="17"/>
+      <c r="I6" s="17" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="18">
-        <v>42</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="13">
-        <v>42064</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="18">
-        <v>43</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="13">
-        <v>42064</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="18">
-        <v>51</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="13">
-        <v>42095</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="18">
-        <v>52</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="13">
-        <v>42095</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
